--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -1097,7 +1097,9 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>264.1</v>
       </c>
@@ -1142,7 +1144,9 @@
       <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>264.5</v>
       </c>
@@ -1187,7 +1191,9 @@
       <c r="J18" t="n">
         <v>8</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>264.5</v>
       </c>
@@ -1232,7 +1238,9 @@
       <c r="J19" t="n">
         <v>8</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>264.5</v>
       </c>
@@ -1277,7 +1285,9 @@
       <c r="J20" t="n">
         <v>8</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>264.5</v>
       </c>
@@ -1322,7 +1332,9 @@
       <c r="J21" t="n">
         <v>12</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>264.9</v>
       </c>
@@ -1369,7 +1381,9 @@
       <c r="J22" t="n">
         <v>15</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L22" t="n">
         <v>265</v>
       </c>
@@ -1515,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="K25" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>265.2</v>
@@ -1564,7 +1578,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L26" t="n">
         <v>265.2</v>
@@ -1613,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L27" t="n">
         <v>264.9</v>
@@ -1662,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>265</v>
@@ -1711,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L29" t="n">
         <v>265.1</v>
@@ -1760,7 +1774,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="n">
-        <v>5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L30" t="n">
         <v>265.2</v>
@@ -1809,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L31" t="n">
         <v>265.1</v>
@@ -1860,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L32" t="n">
         <v>265.2</v>
@@ -1911,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>265.5</v>
@@ -1962,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>265.6</v>
@@ -2013,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="K35" t="n">
-        <v>31.03448275862069</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>266.4</v>
@@ -2064,7 +2078,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>266.9</v>
@@ -2115,7 +2129,7 @@
         <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L37" t="n">
         <v>267.2</v>
@@ -2166,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="K38" t="n">
-        <v>18.51851851851852</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L38" t="n">
         <v>267.6</v>
@@ -2217,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="K39" t="n">
-        <v>24.13793103448276</v>
+        <v>30</v>
       </c>
       <c r="L39" t="n">
         <v>268.2</v>
@@ -2268,7 +2282,7 @@
         <v>37</v>
       </c>
       <c r="K40" t="n">
-        <v>24.13793103448276</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L40" t="n">
         <v>268.8</v>
@@ -2319,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>268.9</v>
@@ -2370,7 +2384,7 @@
         <v>43</v>
       </c>
       <c r="K42" t="n">
-        <v>21.42857142857143</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L42" t="n">
         <v>269.4</v>
@@ -2421,7 +2435,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>31.03448275862069</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L43" t="n">
         <v>270</v>
@@ -2472,7 +2486,7 @@
         <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L44" t="n">
         <v>270.2</v>
@@ -2523,7 +2537,7 @@
         <v>53</v>
       </c>
       <c r="K45" t="n">
-        <v>16.66666666666666</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L45" t="n">
         <v>270</v>
@@ -2574,7 +2588,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="n">
-        <v>18.91891891891892</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>270.2</v>
@@ -2625,7 +2639,7 @@
         <v>55</v>
       </c>
       <c r="K47" t="n">
-        <v>15.78947368421053</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
         <v>270.5</v>
@@ -2676,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
         <v>270.9</v>
@@ -2727,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="K49" t="n">
-        <v>6.666666666666667</v>
+        <v>-12</v>
       </c>
       <c r="L49" t="n">
         <v>270.6</v>
@@ -2778,7 +2792,7 @@
         <v>65</v>
       </c>
       <c r="K50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L50" t="n">
         <v>270.6</v>
@@ -2829,7 +2843,7 @@
         <v>65</v>
       </c>
       <c r="K51" t="n">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>270.9</v>
@@ -2880,7 +2894,7 @@
         <v>65</v>
       </c>
       <c r="K52" t="n">
-        <v>11.11111111111111</v>
+        <v>-10</v>
       </c>
       <c r="L52" t="n">
         <v>270.9</v>
@@ -2931,7 +2945,7 @@
         <v>65</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>270.7</v>
@@ -2982,7 +2996,7 @@
         <v>65</v>
       </c>
       <c r="K54" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>271</v>
@@ -3033,7 +3047,7 @@
         <v>65</v>
       </c>
       <c r="K55" t="n">
-        <v>-5.555555555555555</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L55" t="n">
         <v>271</v>
@@ -3084,7 +3098,7 @@
         <v>66</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>270.8</v>
@@ -3141,7 +3155,7 @@
         <v>68</v>
       </c>
       <c r="K57" t="n">
-        <v>11.76470588235294</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L57" t="n">
         <v>270.9</v>
@@ -3200,7 +3214,7 @@
         <v>70</v>
       </c>
       <c r="K58" t="n">
-        <v>2.857142857142857</v>
+        <v>25</v>
       </c>
       <c r="L58" t="n">
         <v>270.6</v>
@@ -3263,7 +3277,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L59" t="n">
         <v>270.8</v>

--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,67 +394,42 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MA20</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -463,147 +438,142 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F2" t="n">
-        <v>1638000</v>
+        <v>1271700</v>
       </c>
       <c r="G2" t="n">
-        <v>265.0333333333334</v>
+        <v>16894.94008096999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F3" t="n">
-        <v>1685121.8346</v>
+        <v>1266700</v>
       </c>
       <c r="G3" t="n">
-        <v>265</v>
+        <v>16894.94008096999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="K3" t="n">
+        <v>266</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F4" t="n">
-        <v>1012596.199</v>
+        <v>1276100</v>
       </c>
       <c r="G4" t="n">
-        <v>264.9666666666666</v>
+        <v>16894.94008096999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="K4" t="n">
+        <v>266</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D5" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F5" t="n">
-        <v>15255</v>
+        <v>891778.3222000001</v>
       </c>
       <c r="G5" t="n">
-        <v>264.9333333333333</v>
+        <v>-874883.3821190301</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -611,42 +581,41 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>266</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F6" t="n">
-        <v>719985</v>
+        <v>1749999.7174</v>
       </c>
       <c r="G6" t="n">
-        <v>264.9166666666667</v>
+        <v>-874883.3821190301</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -654,42 +623,41 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>266</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7" t="n">
-        <v>1721107</v>
+        <v>1743000</v>
       </c>
       <c r="G7" t="n">
-        <v>264.9</v>
+        <v>-874883.3821190301</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -697,42 +665,41 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>266</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8" t="n">
-        <v>1775963</v>
+        <v>1778000</v>
       </c>
       <c r="G8" t="n">
-        <v>264.8833333333333</v>
+        <v>-874883.3821190301</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -740,42 +707,41 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>266</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F9" t="n">
-        <v>1741678</v>
+        <v>1771024.1901</v>
       </c>
       <c r="G9" t="n">
-        <v>264.8666666666667</v>
+        <v>-874883.3821190301</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -783,42 +749,41 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>266</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F10" t="n">
-        <v>1762249</v>
+        <v>1288117.6222</v>
       </c>
       <c r="G10" t="n">
-        <v>264.85</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -826,42 +791,41 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>266</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D11" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E11" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F11" t="n">
-        <v>1727964</v>
+        <v>17730</v>
       </c>
       <c r="G11" t="n">
-        <v>264.8166666666667</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -869,44 +833,41 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>264</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>266</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C12" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D12" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E12" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F12" t="n">
-        <v>1775963</v>
+        <v>737305.5142</v>
       </c>
       <c r="G12" t="n">
-        <v>264.7833333333334</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -914,44 +875,41 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>264</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>266</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C13" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D13" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E13" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F13" t="n">
-        <v>1748536</v>
+        <v>53244</v>
       </c>
       <c r="G13" t="n">
-        <v>264.75</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -959,44 +917,41 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>264</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>266</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F14" t="n">
-        <v>1742868</v>
+        <v>847467</v>
       </c>
       <c r="G14" t="n">
-        <v>264.7166666666666</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1004,44 +959,41 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>264</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>266</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F15" t="n">
-        <v>642796.1989</v>
+        <v>1115188.6639</v>
       </c>
       <c r="G15" t="n">
-        <v>264.6833333333333</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1049,138 +1001,125 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>264</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>266</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D16" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E16" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F16" t="n">
-        <v>1132.4953</v>
+        <v>1333614</v>
       </c>
       <c r="G16" t="n">
-        <v>264.6666666666667</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>264.1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C17" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E17" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>1521918.8736</v>
       </c>
       <c r="G17" t="n">
-        <v>264.7</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C18" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E18" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F18" t="n">
-        <v>1699470.3813</v>
+        <v>1476000</v>
       </c>
       <c r="G18" t="n">
-        <v>264.6666666666667</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1188,46 +1127,41 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C19" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D19" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E19" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19" t="n">
-        <v>1762249</v>
+        <v>336000</v>
       </c>
       <c r="G19" t="n">
-        <v>264.6333333333333</v>
+        <v>413234.24008097</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1235,46 +1169,41 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C20" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D20" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E20" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F20" t="n">
-        <v>1755392</v>
+        <v>1064880</v>
       </c>
       <c r="G20" t="n">
-        <v>264.6</v>
+        <v>1478114.24008097</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1282,95 +1211,83 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C21" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F21" t="n">
-        <v>939516.9608</v>
+        <v>1122561</v>
       </c>
       <c r="G21" t="n">
-        <v>264.6166666666667</v>
+        <v>1478114.24008097</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>264.9</v>
+        <v>266</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>264.45</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" t="n">
-        <v>1068.53179888</v>
+        <v>635136.5856</v>
       </c>
       <c r="G22" t="n">
-        <v>264.5833333333333</v>
+        <v>1478114.24008097</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1378,48 +1295,41 @@
       <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>15</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L22" t="n">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>264.5</v>
+        <v>0.9987593984962405</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C23" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D23" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E23" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F23" t="n">
-        <v>17236</v>
+        <v>160421.7454</v>
       </c>
       <c r="G23" t="n">
-        <v>264.5333333333334</v>
+        <v>1478114.24008097</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1427,173 +1337,121 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>265</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>264.5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C24" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D24" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F24" t="n">
-        <v>961688</v>
+        <v>518764.7247</v>
       </c>
       <c r="G24" t="n">
-        <v>264.5</v>
+        <v>1478114.24008097</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L24" t="n">
-        <v>265.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>264.55</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D25" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E25" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F25" t="n">
-        <v>1200608.70895522</v>
+        <v>449000</v>
       </c>
       <c r="G25" t="n">
-        <v>264.4666666666666</v>
+        <v>1029114.24008097</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>17</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>265.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>264.6</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" t="n">
         <v>265</v>
       </c>
       <c r="D26" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E26" t="n">
         <v>265</v>
       </c>
       <c r="F26" t="n">
-        <v>1200900.017</v>
+        <v>761910.3888</v>
       </c>
       <c r="G26" t="n">
-        <v>264.45</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>17</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L26" t="n">
-        <v>265.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>264.65</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1612,37 +1470,24 @@
         <v>265</v>
       </c>
       <c r="F27" t="n">
-        <v>119299.983</v>
+        <v>1736000</v>
       </c>
       <c r="G27" t="n">
-        <v>264.45</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>17</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L27" t="n">
-        <v>264.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>264.7</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1661,37 +1506,24 @@
         <v>265</v>
       </c>
       <c r="F28" t="n">
-        <v>580000</v>
+        <v>1792194.5646</v>
       </c>
       <c r="G28" t="n">
-        <v>264.45</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>17</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L28" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>264.75</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1710,37 +1542,24 @@
         <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>412000</v>
+        <v>1092000</v>
       </c>
       <c r="G29" t="n">
-        <v>264.45</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>17</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L29" t="n">
-        <v>265.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>264.8</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1759,1554 +1578,3012 @@
         <v>265</v>
       </c>
       <c r="F30" t="n">
-        <v>1696.0492</v>
+        <v>1743000</v>
       </c>
       <c r="G30" t="n">
-        <v>264.45</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>17</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L30" t="n">
-        <v>265.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>264.85</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D31" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E31" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" t="n">
-        <v>583.23622359</v>
+        <v>1813000</v>
       </c>
       <c r="G31" t="n">
-        <v>264.4833333333333</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>19</v>
-      </c>
-      <c r="K31" t="n">
-        <v>50</v>
-      </c>
-      <c r="L31" t="n">
-        <v>265.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>265</v>
-      </c>
-      <c r="N31" t="n">
-        <v>264.6666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" t="n">
-        <v>642.366</v>
+        <v>1778000</v>
       </c>
       <c r="G32" t="n">
-        <v>264.5</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>20</v>
-      </c>
-      <c r="K32" t="n">
-        <v>50</v>
-      </c>
-      <c r="L32" t="n">
-        <v>265.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>264.7333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D33" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E33" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>1743000</v>
       </c>
       <c r="G33" t="n">
-        <v>264.5333333333334</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>21</v>
-      </c>
-      <c r="K33" t="n">
-        <v>50</v>
-      </c>
-      <c r="L33" t="n">
-        <v>265.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>265.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>264.8333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>1778000</v>
       </c>
       <c r="G34" t="n">
-        <v>264.55</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>22</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>265.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>265.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>264.9</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D35" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E35" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F35" t="n">
-        <v>4762.9047</v>
+        <v>1778000</v>
       </c>
       <c r="G35" t="n">
-        <v>264.6833333333333</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>29</v>
-      </c>
-      <c r="K35" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L35" t="n">
-        <v>266.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="N35" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D36" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E36" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F36" t="n">
-        <v>2042.9593</v>
+        <v>1750000</v>
       </c>
       <c r="G36" t="n">
-        <v>264.7666666666667</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>32</v>
-      </c>
-      <c r="K36" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L36" t="n">
-        <v>266.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>266.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D37" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E37" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" t="n">
-        <v>1438.66791044</v>
+        <v>1792000</v>
       </c>
       <c r="G37" t="n">
-        <v>264.8166666666667</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>34</v>
-      </c>
-      <c r="K37" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L37" t="n">
-        <v>267.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>266.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>265.5333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D38" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E38" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" t="n">
-        <v>53.1331</v>
+        <v>392000</v>
       </c>
       <c r="G38" t="n">
-        <v>264.8833333333333</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>35</v>
-      </c>
-      <c r="K38" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L38" t="n">
-        <v>267.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C39" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D39" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E39" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>21811.2204</v>
       </c>
       <c r="G39" t="n">
-        <v>264.9833333333333</v>
+        <v>267203.8512809699</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>37</v>
-      </c>
-      <c r="K39" t="n">
-        <v>30</v>
-      </c>
-      <c r="L39" t="n">
-        <v>268.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>266.65</v>
-      </c>
-      <c r="N39" t="n">
-        <v>265.9333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C40" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D40" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E40" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F40" t="n">
-        <v>1304.3800738</v>
+        <v>448500</v>
       </c>
       <c r="G40" t="n">
-        <v>265.0833333333333</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>37</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L40" t="n">
-        <v>268.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>267</v>
-      </c>
-      <c r="N40" t="n">
-        <v>266.1666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C41" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D41" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E41" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F41" t="n">
-        <v>859</v>
+        <v>1648300</v>
       </c>
       <c r="G41" t="n">
-        <v>265.15</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>40</v>
-      </c>
-      <c r="K41" t="n">
-        <v>10</v>
-      </c>
-      <c r="L41" t="n">
-        <v>268.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>267</v>
-      </c>
-      <c r="N41" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C42" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D42" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E42" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F42" t="n">
-        <v>19.7269</v>
+        <v>1660200</v>
       </c>
       <c r="G42" t="n">
-        <v>265.2666666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>43</v>
-      </c>
-      <c r="K42" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L42" t="n">
-        <v>269.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>266.5333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C43" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D43" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E43" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F43" t="n">
-        <v>3678.70509926</v>
+        <v>1657500</v>
       </c>
       <c r="G43" t="n">
-        <v>265.4166666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>45</v>
-      </c>
-      <c r="K43" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L43" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>267.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>266.8333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C44" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D44" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E44" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F44" t="n">
-        <v>44.8875</v>
+        <v>1631500</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4833333333333</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>50</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L44" t="n">
-        <v>270.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="N44" t="n">
-        <v>266.9666666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C45" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D45" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E45" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F45" t="n">
-        <v>637.6678000000001</v>
+        <v>1657500</v>
       </c>
       <c r="G45" t="n">
-        <v>265.6</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>53</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L45" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C46" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D46" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E46" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F46" t="n">
-        <v>781.397</v>
+        <v>1612000</v>
       </c>
       <c r="G46" t="n">
-        <v>265.7333333333333</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>54</v>
-      </c>
-      <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>270.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>268.55</v>
-      </c>
-      <c r="N46" t="n">
-        <v>267.4333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C47" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D47" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E47" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F47" t="n">
-        <v>134</v>
+        <v>1696500</v>
       </c>
       <c r="G47" t="n">
-        <v>265.85</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>55</v>
-      </c>
-      <c r="K47" t="n">
-        <v>10</v>
-      </c>
-      <c r="L47" t="n">
-        <v>270.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>268.85</v>
-      </c>
-      <c r="N47" t="n">
-        <v>267.5333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C48" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D48" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E48" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F48" t="n">
-        <v>3663.0036</v>
+        <v>1644500</v>
       </c>
       <c r="G48" t="n">
-        <v>266</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>57</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10</v>
-      </c>
-      <c r="L48" t="n">
-        <v>270.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>269.25</v>
-      </c>
-      <c r="N48" t="n">
-        <v>267.8333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C49" t="n">
+        <v>264</v>
+      </c>
+      <c r="D49" t="n">
         <v>268</v>
       </c>
-      <c r="D49" t="n">
-        <v>273</v>
-      </c>
       <c r="E49" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F49" t="n">
-        <v>2762.2439</v>
+        <v>1683502</v>
       </c>
       <c r="G49" t="n">
-        <v>266.0666666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>62</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L49" t="n">
-        <v>270.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>267.9666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C50" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D50" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E50" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F50" t="n">
-        <v>90.407</v>
+        <v>1690000</v>
       </c>
       <c r="G50" t="n">
-        <v>266.1833333333333</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>65</v>
-      </c>
-      <c r="K50" t="n">
-        <v>12</v>
-      </c>
-      <c r="L50" t="n">
-        <v>270.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="N50" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C51" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D51" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E51" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F51" t="n">
-        <v>2226.1418</v>
+        <v>1657500</v>
       </c>
       <c r="G51" t="n">
-        <v>266.3</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>65</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>270.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C52" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D52" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E52" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F52" t="n">
-        <v>55.3299</v>
+        <v>1644500</v>
       </c>
       <c r="G52" t="n">
-        <v>266.4166666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>65</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L52" t="n">
-        <v>270.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>270.15</v>
-      </c>
-      <c r="N52" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C53" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D53" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E53" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F53" t="n">
-        <v>423.2619</v>
+        <v>1631500</v>
       </c>
       <c r="G53" t="n">
-        <v>266.5333333333334</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>65</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>270.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>270.35</v>
-      </c>
-      <c r="N53" t="n">
-        <v>268.7333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C54" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E54" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F54" t="n">
-        <v>191.4223</v>
+        <v>1631500</v>
       </c>
       <c r="G54" t="n">
-        <v>266.65</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>65</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>271</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="N54" t="n">
-        <v>268.9333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C55" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D55" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E55" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F55" t="n">
-        <v>1109.5051</v>
+        <v>1664000</v>
       </c>
       <c r="G55" t="n">
-        <v>266.7666666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>65</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L55" t="n">
-        <v>271</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>269.1333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C56" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D56" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E56" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F56" t="n">
-        <v>1019.8054</v>
+        <v>1677000</v>
       </c>
       <c r="G56" t="n">
-        <v>266.8666666666667</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>66</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L56" t="n">
-        <v>270.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O56" t="n">
-        <v>271</v>
-      </c>
-      <c r="P56" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>271</v>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C57" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D57" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E57" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>1657500</v>
       </c>
       <c r="G57" t="n">
-        <v>267</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>68</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L57" t="n">
-        <v>270.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="N57" t="n">
-        <v>269.5333333333334</v>
-      </c>
-      <c r="O57" t="n">
-        <v>270</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>271</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C58" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D58" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E58" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F58" t="n">
-        <v>1497.8052</v>
+        <v>1657500</v>
       </c>
       <c r="G58" t="n">
-        <v>267.1</v>
+        <v>-181296.1487190301</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>70</v>
-      </c>
-      <c r="K58" t="n">
-        <v>25</v>
-      </c>
-      <c r="L58" t="n">
-        <v>270.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>270.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="O58" t="n">
-        <v>272</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>271</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>264</v>
+      </c>
+      <c r="C59" t="n">
+        <v>264</v>
+      </c>
+      <c r="D59" t="n">
+        <v>264</v>
+      </c>
+      <c r="E59" t="n">
+        <v>264</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1664000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>264</v>
+      </c>
+      <c r="C60" t="n">
+        <v>264</v>
+      </c>
+      <c r="D60" t="n">
+        <v>264</v>
+      </c>
+      <c r="E60" t="n">
+        <v>264</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1657500</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>264</v>
+      </c>
+      <c r="C61" t="n">
+        <v>264</v>
+      </c>
+      <c r="D61" t="n">
+        <v>264</v>
+      </c>
+      <c r="E61" t="n">
+        <v>264</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1638000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>264</v>
+      </c>
+      <c r="C62" t="n">
+        <v>264</v>
+      </c>
+      <c r="D62" t="n">
+        <v>264</v>
+      </c>
+      <c r="E62" t="n">
+        <v>264</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1685121.8346</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>264</v>
+      </c>
+      <c r="C63" t="n">
+        <v>264</v>
+      </c>
+      <c r="D63" t="n">
+        <v>264</v>
+      </c>
+      <c r="E63" t="n">
+        <v>264</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1012596.199</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>264</v>
+      </c>
+      <c r="C64" t="n">
+        <v>264</v>
+      </c>
+      <c r="D64" t="n">
+        <v>264</v>
+      </c>
+      <c r="E64" t="n">
+        <v>264</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15255</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>264</v>
+      </c>
+      <c r="C65" t="n">
+        <v>264</v>
+      </c>
+      <c r="D65" t="n">
+        <v>264</v>
+      </c>
+      <c r="E65" t="n">
+        <v>264</v>
+      </c>
+      <c r="F65" t="n">
+        <v>719985</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>264</v>
+      </c>
+      <c r="K65" t="n">
+        <v>264</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>264</v>
+      </c>
+      <c r="C66" t="n">
+        <v>264</v>
+      </c>
+      <c r="D66" t="n">
+        <v>264</v>
+      </c>
+      <c r="E66" t="n">
+        <v>264</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1721107</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>264</v>
+      </c>
+      <c r="K66" t="n">
+        <v>264</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>264</v>
+      </c>
+      <c r="C67" t="n">
+        <v>264</v>
+      </c>
+      <c r="D67" t="n">
+        <v>264</v>
+      </c>
+      <c r="E67" t="n">
+        <v>264</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1775963</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>264</v>
+      </c>
+      <c r="K67" t="n">
+        <v>264</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>264</v>
+      </c>
+      <c r="C68" t="n">
+        <v>264</v>
+      </c>
+      <c r="D68" t="n">
+        <v>264</v>
+      </c>
+      <c r="E68" t="n">
+        <v>264</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1741678</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>264</v>
+      </c>
+      <c r="C69" t="n">
+        <v>264</v>
+      </c>
+      <c r="D69" t="n">
+        <v>264</v>
+      </c>
+      <c r="E69" t="n">
+        <v>264</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1762249</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>264</v>
+      </c>
+      <c r="C70" t="n">
+        <v>264</v>
+      </c>
+      <c r="D70" t="n">
+        <v>264</v>
+      </c>
+      <c r="E70" t="n">
+        <v>264</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1727964</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>264</v>
+      </c>
+      <c r="C71" t="n">
+        <v>264</v>
+      </c>
+      <c r="D71" t="n">
+        <v>264</v>
+      </c>
+      <c r="E71" t="n">
+        <v>264</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1775963</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>264</v>
+      </c>
+      <c r="C72" t="n">
+        <v>264</v>
+      </c>
+      <c r="D72" t="n">
+        <v>264</v>
+      </c>
+      <c r="E72" t="n">
+        <v>264</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1748536</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>264</v>
+      </c>
+      <c r="C73" t="n">
+        <v>264</v>
+      </c>
+      <c r="D73" t="n">
+        <v>264</v>
+      </c>
+      <c r="E73" t="n">
+        <v>264</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1742868</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>264</v>
+      </c>
+      <c r="K73" t="n">
+        <v>264</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>264</v>
+      </c>
+      <c r="C74" t="n">
+        <v>264</v>
+      </c>
+      <c r="D74" t="n">
+        <v>264</v>
+      </c>
+      <c r="E74" t="n">
+        <v>264</v>
+      </c>
+      <c r="F74" t="n">
+        <v>642796.1989</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-181296.1487190301</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="n">
+        <v>264</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>265</v>
+      </c>
+      <c r="C75" t="n">
+        <v>265</v>
+      </c>
+      <c r="D75" t="n">
+        <v>265</v>
+      </c>
+      <c r="E75" t="n">
+        <v>265</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1132.4953</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-180163.6534190301</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>264</v>
+      </c>
+      <c r="K75" t="n">
+        <v>264</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>268</v>
+      </c>
+      <c r="C76" t="n">
+        <v>268</v>
+      </c>
+      <c r="D76" t="n">
+        <v>268</v>
+      </c>
+      <c r="E76" t="n">
+        <v>268</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-180162.6534190301</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>265</v>
+      </c>
+      <c r="K76" t="n">
+        <v>265</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>265</v>
+      </c>
+      <c r="C77" t="n">
+        <v>264</v>
+      </c>
+      <c r="D77" t="n">
+        <v>265</v>
+      </c>
+      <c r="E77" t="n">
+        <v>264</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1699470.3813</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1879633.03471903</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>265</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>264</v>
+      </c>
+      <c r="C78" t="n">
+        <v>264</v>
+      </c>
+      <c r="D78" t="n">
+        <v>264</v>
+      </c>
+      <c r="E78" t="n">
+        <v>264</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1762249</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1879633.03471903</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>265</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>264</v>
+      </c>
+      <c r="C79" t="n">
+        <v>264</v>
+      </c>
+      <c r="D79" t="n">
+        <v>264</v>
+      </c>
+      <c r="E79" t="n">
+        <v>264</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1755392</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1879633.03471903</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>265</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>264</v>
+      </c>
+      <c r="C80" t="n">
+        <v>268</v>
+      </c>
+      <c r="D80" t="n">
+        <v>268</v>
+      </c>
+      <c r="E80" t="n">
+        <v>264</v>
+      </c>
+      <c r="F80" t="n">
+        <v>939516.9608</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-940116.0739190301</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>265</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>269</v>
+      </c>
+      <c r="C81" t="n">
+        <v>265</v>
+      </c>
+      <c r="D81" t="n">
+        <v>269</v>
+      </c>
+      <c r="E81" t="n">
+        <v>265</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1068.53179888</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-941184.6057179101</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>265</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>265</v>
+      </c>
+      <c r="C82" t="n">
+        <v>264</v>
+      </c>
+      <c r="D82" t="n">
+        <v>265</v>
+      </c>
+      <c r="E82" t="n">
+        <v>264</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17236</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-958420.6057179101</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>265</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>265</v>
+      </c>
+      <c r="C83" t="n">
+        <v>265</v>
+      </c>
+      <c r="D83" t="n">
+        <v>268</v>
+      </c>
+      <c r="E83" t="n">
+        <v>264</v>
+      </c>
+      <c r="F83" t="n">
+        <v>961688</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>264</v>
+      </c>
+      <c r="K83" t="n">
+        <v>265</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>265</v>
+      </c>
+      <c r="C84" t="n">
+        <v>265</v>
+      </c>
+      <c r="D84" t="n">
+        <v>268</v>
+      </c>
+      <c r="E84" t="n">
+        <v>265</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1200608.70895522</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>265</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>265</v>
+      </c>
+      <c r="C85" t="n">
+        <v>265</v>
+      </c>
+      <c r="D85" t="n">
+        <v>266</v>
+      </c>
+      <c r="E85" t="n">
+        <v>265</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1200900.017</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>265</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>265</v>
+      </c>
+      <c r="C86" t="n">
+        <v>265</v>
+      </c>
+      <c r="D86" t="n">
+        <v>265</v>
+      </c>
+      <c r="E86" t="n">
+        <v>265</v>
+      </c>
+      <c r="F86" t="n">
+        <v>119299.983</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>265</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>265</v>
+      </c>
+      <c r="C87" t="n">
+        <v>265</v>
+      </c>
+      <c r="D87" t="n">
+        <v>265</v>
+      </c>
+      <c r="E87" t="n">
+        <v>265</v>
+      </c>
+      <c r="F87" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>265</v>
+      </c>
+      <c r="K87" t="n">
+        <v>265</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>265</v>
+      </c>
+      <c r="C88" t="n">
+        <v>265</v>
+      </c>
+      <c r="D88" t="n">
+        <v>265</v>
+      </c>
+      <c r="E88" t="n">
+        <v>265</v>
+      </c>
+      <c r="F88" t="n">
+        <v>412000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>265</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>265</v>
+      </c>
+      <c r="C89" t="n">
+        <v>265</v>
+      </c>
+      <c r="D89" t="n">
+        <v>265</v>
+      </c>
+      <c r="E89" t="n">
+        <v>265</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1696.0492</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3267.394282089896</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>265</v>
+      </c>
+      <c r="K89" t="n">
+        <v>265</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>266</v>
+      </c>
+      <c r="C90" t="n">
+        <v>267</v>
+      </c>
+      <c r="D90" t="n">
+        <v>267</v>
+      </c>
+      <c r="E90" t="n">
+        <v>266</v>
+      </c>
+      <c r="F90" t="n">
+        <v>583.23622359</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3850.630505679896</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>265</v>
+      </c>
+      <c r="K90" t="n">
+        <v>265</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>266</v>
+      </c>
+      <c r="C91" t="n">
+        <v>266</v>
+      </c>
+      <c r="D91" t="n">
+        <v>266</v>
+      </c>
+      <c r="E91" t="n">
+        <v>266</v>
+      </c>
+      <c r="F91" t="n">
+        <v>642.366</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3208.264505679896</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>267</v>
+      </c>
+      <c r="K91" t="n">
+        <v>265</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>267</v>
+      </c>
+      <c r="C92" t="n">
+        <v>267</v>
+      </c>
+      <c r="D92" t="n">
+        <v>267</v>
+      </c>
+      <c r="E92" t="n">
+        <v>267</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3209.264505679896</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>265</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>266</v>
+      </c>
+      <c r="C93" t="n">
+        <v>266</v>
+      </c>
+      <c r="D93" t="n">
+        <v>266</v>
+      </c>
+      <c r="E93" t="n">
+        <v>266</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3208.264505679896</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>265</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>267</v>
+      </c>
+      <c r="C94" t="n">
+        <v>273</v>
+      </c>
+      <c r="D94" t="n">
+        <v>273</v>
+      </c>
+      <c r="E94" t="n">
+        <v>267</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4762.9047</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7971.169205679896</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>265</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>269</v>
+      </c>
+      <c r="C95" t="n">
         <v>270</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D95" t="n">
         <v>270</v>
       </c>
-      <c r="D59" t="n">
-        <v>270</v>
-      </c>
-      <c r="E59" t="n">
-        <v>270</v>
-      </c>
-      <c r="F59" t="n">
-        <v>254.5104</v>
-      </c>
-      <c r="G59" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>70</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L59" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="M59" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="N59" t="n">
-        <v>269.8666666666667</v>
-      </c>
-      <c r="O59" t="n">
-        <v>270</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
+      <c r="E95" t="n">
+        <v>266</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2042.9593</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5928.209905679896</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>265</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>266</v>
+      </c>
+      <c r="C96" t="n">
+        <v>268</v>
+      </c>
+      <c r="D96" t="n">
+        <v>269</v>
+      </c>
+      <c r="E96" t="n">
+        <v>266</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1438.66791044</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4489.541995239896</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>265</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>266</v>
+      </c>
+      <c r="C97" t="n">
+        <v>269</v>
+      </c>
+      <c r="D97" t="n">
+        <v>269</v>
+      </c>
+      <c r="E97" t="n">
+        <v>266</v>
+      </c>
+      <c r="F97" t="n">
+        <v>53.1331</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4542.675095239896</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>265</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>269</v>
+      </c>
+      <c r="C98" t="n">
         <v>271</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+      <c r="D98" t="n">
+        <v>271</v>
+      </c>
+      <c r="E98" t="n">
+        <v>269</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4544.675095239896</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>265</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>271</v>
+      </c>
+      <c r="C99" t="n">
+        <v>271</v>
+      </c>
+      <c r="D99" t="n">
+        <v>271</v>
+      </c>
+      <c r="E99" t="n">
+        <v>271</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1304.3800738</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4544.675095239896</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>265</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>268</v>
+      </c>
+      <c r="C100" t="n">
+        <v>268</v>
+      </c>
+      <c r="D100" t="n">
+        <v>268</v>
+      </c>
+      <c r="E100" t="n">
+        <v>268</v>
+      </c>
+      <c r="F100" t="n">
+        <v>859</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3685.675095239896</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>265</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>271</v>
+      </c>
+      <c r="C101" t="n">
+        <v>271</v>
+      </c>
+      <c r="D101" t="n">
+        <v>271</v>
+      </c>
+      <c r="E101" t="n">
+        <v>271</v>
+      </c>
+      <c r="F101" t="n">
+        <v>19.7269</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3705.401995239896</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>265</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>271</v>
+      </c>
+      <c r="C102" t="n">
+        <v>273</v>
+      </c>
+      <c r="D102" t="n">
+        <v>273</v>
+      </c>
+      <c r="E102" t="n">
+        <v>271</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3678.70509926</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7384.107094499896</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>265</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>268</v>
+      </c>
+      <c r="C103" t="n">
+        <v>268</v>
+      </c>
+      <c r="D103" t="n">
+        <v>268</v>
+      </c>
+      <c r="E103" t="n">
+        <v>268</v>
+      </c>
+      <c r="F103" t="n">
+        <v>44.8875</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7339.219594499897</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>265</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1.006320754716981</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>271</v>
+      </c>
+      <c r="C104" t="n">
+        <v>271</v>
+      </c>
+      <c r="D104" t="n">
+        <v>271</v>
+      </c>
+      <c r="E104" t="n">
+        <v>271</v>
+      </c>
+      <c r="F104" t="n">
+        <v>637.6678000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7976.887394499897</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>271</v>
+      </c>
+      <c r="C105" t="n">
+        <v>272</v>
+      </c>
+      <c r="D105" t="n">
+        <v>272</v>
+      </c>
+      <c r="E105" t="n">
+        <v>271</v>
+      </c>
+      <c r="F105" t="n">
+        <v>781.397</v>
+      </c>
+      <c r="G105" t="n">
+        <v>8758.284394499897</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>271</v>
+      </c>
+      <c r="C106" t="n">
+        <v>271</v>
+      </c>
+      <c r="D106" t="n">
+        <v>271</v>
+      </c>
+      <c r="E106" t="n">
+        <v>271</v>
+      </c>
+      <c r="F106" t="n">
+        <v>134</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8624.284394499897</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>273</v>
+      </c>
+      <c r="C107" t="n">
+        <v>273</v>
+      </c>
+      <c r="D107" t="n">
+        <v>273</v>
+      </c>
+      <c r="E107" t="n">
+        <v>273</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3663.0036</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12287.2879944999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>266</v>
-      </c>
-      <c r="K3" t="n">
-        <v>266</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>266</v>
-      </c>
-      <c r="K4" t="n">
-        <v>266</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>266</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,15 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>266</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,22 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>266</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,22 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>266</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>266</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>266</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>266</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>266</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>266</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>266</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>266</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>266</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1082,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>266</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1124,22 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>266</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>266</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1208,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>266</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>266</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,24 +1111,21 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>266</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9987593984962405</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1334,16 +1152,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1368,18 +1187,21 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1406,16 +1228,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,18 +1263,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1478,16 +1304,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1512,18 +1339,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1550,16 +1380,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,16 +1417,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,16 +1454,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1658,16 +1491,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1694,16 +1528,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,18 +1563,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1766,16 +1604,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,18 +1639,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1836,18 +1678,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,18 +1717,21 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1910,16 +1758,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1946,16 +1795,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,18 +1830,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,18 +1869,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2052,18 +1908,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,18 +1947,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2124,18 +1986,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2160,18 +2025,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2196,18 +2064,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2232,18 +2103,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2268,18 +2142,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2306,16 +2183,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2342,16 +2220,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2378,16 +2257,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2414,16 +2294,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2450,16 +2331,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2486,16 +2368,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2522,16 +2405,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2558,16 +2442,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2594,16 +2479,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2630,16 +2516,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2666,16 +2553,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2700,18 +2588,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2736,18 +2627,21 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2774,16 +2668,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2810,16 +2705,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2844,22 +2740,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>264</v>
-      </c>
-      <c r="K65" t="n">
-        <v>264</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2884,26 +2777,17 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>264</v>
-      </c>
-      <c r="K66" t="n">
-        <v>264</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2928,26 +2812,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>264</v>
-      </c>
-      <c r="K67" t="n">
-        <v>264</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2972,18 +2845,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3010,16 +2880,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3044,18 +2911,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3080,18 +2944,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3116,18 +2977,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3152,22 +3010,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>264</v>
-      </c>
-      <c r="K73" t="n">
-        <v>264</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3192,26 +3043,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
-      <c r="K74" t="n">
-        <v>264</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3236,26 +3076,15 @@
         <v>-180163.6534190301</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>264</v>
-      </c>
-      <c r="K75" t="n">
-        <v>264</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3280,22 +3109,15 @@
         <v>-180162.6534190301</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>265</v>
-      </c>
-      <c r="K76" t="n">
-        <v>265</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3322,22 +3144,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>265</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3364,22 +3177,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>265</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3406,22 +3210,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>265</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3448,22 +3243,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>265</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3490,22 +3276,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>265</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3532,22 +3309,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>265</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3572,26 +3340,15 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>264</v>
-      </c>
-      <c r="K83" t="n">
-        <v>265</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3618,22 +3375,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>265</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3660,22 +3408,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>265</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3702,22 +3441,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>265</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3742,26 +3472,15 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>265</v>
-      </c>
-      <c r="K87" t="n">
-        <v>265</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3788,22 +3507,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>265</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3828,26 +3538,15 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>265</v>
-      </c>
-      <c r="K89" t="n">
-        <v>265</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3872,26 +3571,15 @@
         <v>3850.630505679896</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>265</v>
-      </c>
-      <c r="K90" t="n">
-        <v>265</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3916,26 +3604,15 @@
         <v>3208.264505679896</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>267</v>
-      </c>
-      <c r="K91" t="n">
-        <v>265</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3962,22 +3639,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>265</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4004,22 +3672,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>265</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,22 +3705,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>265</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4086,24 +3736,15 @@
         <v>5928.209905679896</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>265</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4128,24 +3769,15 @@
         <v>4489.541995239896</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>265</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4170,24 +3802,15 @@
         <v>4542.675095239896</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>265</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4214,22 +3837,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>265</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4254,24 +3868,15 @@
         <v>4544.675095239896</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>265</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,22 +3903,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>265</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4338,24 +3934,15 @@
         <v>3705.401995239896</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>265</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4380,24 +3967,15 @@
         <v>7384.107094499896</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>265</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4422,24 +4000,15 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>265</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1.006320754716981</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4464,18 +4033,15 @@
         <v>7976.887394499897</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4502,16 +4068,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4536,18 +4099,15 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4572,20 +4132,17 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1111,17 +1111,11 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1154,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1187,17 +1177,11 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,17 +1243,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1339,17 +1309,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1452,15 +1408,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1489,15 +1441,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1563,17 +1507,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1639,17 +1573,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1678,17 +1606,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1717,17 +1639,11 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1830,17 +1738,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1871,15 +1773,9 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>264</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1908,17 +1804,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1947,17 +1837,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1986,17 +1870,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2025,17 +1903,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2064,17 +1936,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2103,17 +1969,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2142,17 +2002,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2259,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2296,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2333,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2407,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2481,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2555,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2588,17 +2398,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2431,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2703,15 +2497,15 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>264</v>
+      </c>
+      <c r="J64" t="n">
+        <v>264</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2740,13 +2534,17 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>264</v>
+      </c>
+      <c r="J65" t="n">
+        <v>264</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2777,16 +2575,22 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>264</v>
+      </c>
+      <c r="J66" t="n">
+        <v>264</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2845,7 +2649,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2911,7 +2715,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2944,7 +2748,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2977,10 +2781,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>264</v>
+      </c>
+      <c r="J72" t="n">
+        <v>264</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -3010,11 +2818,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>264</v>
+      </c>
+      <c r="J73" t="n">
+        <v>264</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2859,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>264</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3076,10 +2900,14 @@
         <v>-180163.6534190301</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>264</v>
+      </c>
+      <c r="J75" t="n">
+        <v>264</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -3109,11 +2937,19 @@
         <v>-180162.6534190301</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>265</v>
+      </c>
+      <c r="J76" t="n">
+        <v>264</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>264</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>264</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>264</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3244,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>264</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3277,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>264</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>264</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3215,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>264</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3254,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>264</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3293,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>264</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>264</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +3371,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>264</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +3410,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>264</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>264</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>264</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3527,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>264</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3640,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>264</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>264</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>264</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3680,17 @@
         <v>5928.209905679896</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>264</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +3719,17 @@
         <v>4489.541995239896</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>264</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3758,17 @@
         <v>4542.675095239896</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>264</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3838,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>264</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +3836,17 @@
         <v>4544.675095239896</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>264</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3904,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>264</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +3914,17 @@
         <v>3705.401995239896</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>264</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +3953,17 @@
         <v>7384.107094499896</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>264</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4000,13 +3992,19 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>264</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>1.010151515151515</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
@@ -4033,7 +4031,7 @@
         <v>7976.887394499897</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4066,7 +4064,7 @@
         <v>8758.284394499897</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4099,7 +4097,7 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4132,7 +4130,7 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4143,6 +4141,6 @@
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-874883.3821190301</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2781,14 +2781,10 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>264</v>
-      </c>
-      <c r="J72" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2818,19 +2814,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>264</v>
-      </c>
-      <c r="J73" t="n">
-        <v>264</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2859,19 +2847,11 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>264</v>
-      </c>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3056,9 +3036,11 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>264</v>
+      </c>
       <c r="J79" t="n">
         <v>264</v>
       </c>
@@ -3992,7 +3974,7 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4000,11 +3982,11 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.010151515151515</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
@@ -4034,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>264</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4052,17 @@
         <v>8758.284394499897</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>264</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +4091,17 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>264</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4130,17 +4130,23 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>264</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -451,7 +451,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,10 +2200,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>264</v>
+      </c>
+      <c r="J55" t="n">
+        <v>264</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2233,11 +2237,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>264</v>
+      </c>
+      <c r="J56" t="n">
+        <v>264</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>264</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,10 +2317,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>264</v>
+      </c>
+      <c r="J58" t="n">
+        <v>264</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2335,8 +2357,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>264</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2396,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2464,10 +2498,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>264</v>
+      </c>
+      <c r="J63" t="n">
+        <v>264</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2505,7 +2543,11 @@
       <c r="J64" t="n">
         <v>264</v>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2625,7 @@
       <c r="J66" t="n">
         <v>264</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2654,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>264</v>
+      </c>
+      <c r="J67" t="n">
+        <v>264</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2695,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>264</v>
+      </c>
+      <c r="J68" t="n">
+        <v>264</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,10 +2736,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>264</v>
+      </c>
+      <c r="J69" t="n">
+        <v>264</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2715,11 +2773,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>264</v>
+      </c>
+      <c r="J70" t="n">
+        <v>264</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2814,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>264</v>
+      </c>
+      <c r="J71" t="n">
+        <v>264</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,10 +2855,14 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>264</v>
+      </c>
+      <c r="J72" t="n">
+        <v>264</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2814,11 +2892,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>264</v>
+      </c>
+      <c r="J73" t="n">
+        <v>264</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +2933,19 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>264</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2958,9 +3052,11 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>268</v>
+      </c>
       <c r="J77" t="n">
         <v>264</v>
       </c>
@@ -2997,9 +3093,11 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>264</v>
+      </c>
       <c r="J78" t="n">
         <v>264</v>
       </c>
@@ -3036,11 +3134,9 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>264</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>264</v>
       </c>
@@ -3077,9 +3173,11 @@
         <v>-940116.0739190301</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>264</v>
+      </c>
       <c r="J80" t="n">
         <v>264</v>
       </c>
@@ -3116,9 +3214,11 @@
         <v>-941184.6057179101</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>268</v>
+      </c>
       <c r="J81" t="n">
         <v>264</v>
       </c>
@@ -3155,9 +3255,11 @@
         <v>-958420.6057179101</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>265</v>
+      </c>
       <c r="J82" t="n">
         <v>264</v>
       </c>
@@ -3194,9 +3296,11 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>264</v>
+      </c>
       <c r="J83" t="n">
         <v>264</v>
       </c>
@@ -3623,9 +3727,11 @@
         <v>7971.169205679896</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>266</v>
+      </c>
       <c r="J94" t="n">
         <v>264</v>
       </c>
@@ -3662,7 +3768,7 @@
         <v>5928.209905679896</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
@@ -3670,11 +3776,11 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>1.017727272727273</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3704,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>264</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3743,14 +3843,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>264</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3876,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>264</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3821,14 +3909,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>264</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3857,17 +3939,11 @@
         <v>3685.675095239896</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>264</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3899,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>264</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3938,14 +4008,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>264</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3974,17 +4038,11 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>264</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4013,17 +4071,11 @@
         <v>7976.887394499897</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>264</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4052,17 +4104,11 @@
         <v>8758.284394499897</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>264</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4091,17 +4137,11 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>264</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4130,17 +4170,11 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>264</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest ARN.xlsx
+++ b/BackTest/2019-10-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1271700</v>
       </c>
       <c r="G2" t="n">
-        <v>16894.94008096999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1266700</v>
       </c>
       <c r="G3" t="n">
-        <v>16894.94008096999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1276100</v>
       </c>
       <c r="G4" t="n">
-        <v>16894.94008096999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>891778.3222000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-874883.3821190301</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1749999.7174</v>
       </c>
       <c r="G6" t="n">
-        <v>-874883.3821190301</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1743000</v>
       </c>
       <c r="G7" t="n">
-        <v>-874883.3821190301</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1778000</v>
       </c>
       <c r="G8" t="n">
-        <v>-874883.3821190301</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1771024.1901</v>
       </c>
       <c r="G9" t="n">
-        <v>-874883.3821190301</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1288117.6222</v>
       </c>
       <c r="G10" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>17730</v>
       </c>
       <c r="G11" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>737305.5142</v>
       </c>
       <c r="G12" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>53244</v>
       </c>
       <c r="G13" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>847467</v>
       </c>
       <c r="G14" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1115188.6639</v>
       </c>
       <c r="G15" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1333614</v>
       </c>
       <c r="G16" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1521918.8736</v>
       </c>
       <c r="G17" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1476000</v>
       </c>
       <c r="G18" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>336000</v>
       </c>
       <c r="G19" t="n">
-        <v>413234.24008097</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1064880</v>
       </c>
       <c r="G20" t="n">
-        <v>1478114.24008097</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1122561</v>
       </c>
       <c r="G21" t="n">
-        <v>1478114.24008097</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>635136.5856</v>
       </c>
       <c r="G22" t="n">
-        <v>1478114.24008097</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>160421.7454</v>
       </c>
       <c r="G23" t="n">
-        <v>1478114.24008097</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>518764.7247</v>
       </c>
       <c r="G24" t="n">
-        <v>1478114.24008097</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>449000</v>
       </c>
       <c r="G25" t="n">
-        <v>1029114.24008097</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>761910.3888</v>
       </c>
       <c r="G26" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1736000</v>
       </c>
       <c r="G27" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1792194.5646</v>
       </c>
       <c r="G28" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1092000</v>
       </c>
       <c r="G29" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1743000</v>
       </c>
       <c r="G30" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1813000</v>
       </c>
       <c r="G31" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1778000</v>
       </c>
       <c r="G32" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1743000</v>
       </c>
       <c r="G33" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1778000</v>
       </c>
       <c r="G34" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1778000</v>
       </c>
       <c r="G35" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1750000</v>
       </c>
       <c r="G36" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1792000</v>
       </c>
       <c r="G37" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>392000</v>
       </c>
       <c r="G38" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>21811.2204</v>
       </c>
       <c r="G39" t="n">
-        <v>267203.8512809699</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>448500</v>
       </c>
       <c r="G40" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1648300</v>
       </c>
       <c r="G41" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,21 @@
         <v>1660200</v>
       </c>
       <c r="G42" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1679,19 @@
         <v>1657500</v>
       </c>
       <c r="G43" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1713,19 @@
         <v>1631500</v>
       </c>
       <c r="G44" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1747,19 @@
         <v>1657500</v>
       </c>
       <c r="G45" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1781,19 @@
         <v>1612000</v>
       </c>
       <c r="G46" t="n">
-        <v>-181296.1487190301</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1815,21 @@
         <v>1696500</v>
       </c>
       <c r="G47" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1851,21 @@
         <v>1644500</v>
       </c>
       <c r="G48" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1887,21 @@
         <v>1683502</v>
       </c>
       <c r="G49" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1923,21 @@
         <v>1690000</v>
       </c>
       <c r="G50" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1959,21 @@
         <v>1657500</v>
       </c>
       <c r="G51" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1995,21 @@
         <v>1644500</v>
       </c>
       <c r="G52" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2031,21 @@
         <v>1631500</v>
       </c>
       <c r="G53" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2067,21 @@
         <v>1631500</v>
       </c>
       <c r="G54" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,22 +2103,21 @@
         <v>1664000</v>
       </c>
       <c r="G55" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>264</v>
-      </c>
-      <c r="J55" t="n">
-        <v>264</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2234,26 +2139,21 @@
         <v>1677000</v>
       </c>
       <c r="G56" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>264</v>
-      </c>
-      <c r="J56" t="n">
-        <v>264</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2275,24 +2175,21 @@
         <v>1657500</v>
       </c>
       <c r="G57" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>264</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,22 +2211,21 @@
         <v>1657500</v>
       </c>
       <c r="G58" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>264</v>
-      </c>
-      <c r="J58" t="n">
-        <v>264</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2351,24 +2247,21 @@
         <v>1664000</v>
       </c>
       <c r="G59" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>264</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2390,24 +2283,21 @@
         <v>1657500</v>
       </c>
       <c r="G60" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>264</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2429,18 +2319,21 @@
         <v>1638000</v>
       </c>
       <c r="G61" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2462,18 +2355,21 @@
         <v>1685121.8346</v>
       </c>
       <c r="G62" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2495,22 +2391,21 @@
         <v>1012596.199</v>
       </c>
       <c r="G63" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>264</v>
-      </c>
-      <c r="J63" t="n">
-        <v>264</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2532,26 +2427,21 @@
         <v>15255</v>
       </c>
       <c r="G64" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>264</v>
-      </c>
-      <c r="J64" t="n">
-        <v>264</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2573,26 +2463,21 @@
         <v>719985</v>
       </c>
       <c r="G65" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>264</v>
-      </c>
-      <c r="J65" t="n">
-        <v>264</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2614,22 +2499,21 @@
         <v>1721107</v>
       </c>
       <c r="G66" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>264</v>
-      </c>
-      <c r="J66" t="n">
-        <v>264</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2651,26 +2535,21 @@
         <v>1775963</v>
       </c>
       <c r="G67" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>264</v>
-      </c>
-      <c r="J67" t="n">
-        <v>264</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2692,26 +2571,21 @@
         <v>1741678</v>
       </c>
       <c r="G68" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>264</v>
-      </c>
-      <c r="J68" t="n">
-        <v>264</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2733,22 +2607,21 @@
         <v>1762249</v>
       </c>
       <c r="G69" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>264</v>
-      </c>
-      <c r="J69" t="n">
-        <v>264</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2770,26 +2643,21 @@
         <v>1727964</v>
       </c>
       <c r="G70" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>264</v>
-      </c>
-      <c r="J70" t="n">
-        <v>264</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2811,26 +2679,21 @@
         <v>1775963</v>
       </c>
       <c r="G71" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>264</v>
-      </c>
-      <c r="J71" t="n">
-        <v>264</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2852,22 +2715,21 @@
         <v>1748536</v>
       </c>
       <c r="G72" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>264</v>
-      </c>
-      <c r="J72" t="n">
-        <v>264</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2889,26 +2751,21 @@
         <v>1742868</v>
       </c>
       <c r="G73" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>264</v>
-      </c>
-      <c r="J73" t="n">
-        <v>264</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2930,26 +2787,21 @@
         <v>642796.1989</v>
       </c>
       <c r="G74" t="n">
-        <v>-181296.1487190301</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>264</v>
-      </c>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2971,22 +2823,21 @@
         <v>1132.4953</v>
       </c>
       <c r="G75" t="n">
-        <v>-180163.6534190301</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>264</v>
-      </c>
-      <c r="J75" t="n">
-        <v>264</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3008,26 +2859,21 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-180162.6534190301</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>265</v>
-      </c>
-      <c r="J76" t="n">
-        <v>264</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3049,26 +2895,19 @@
         <v>1699470.3813</v>
       </c>
       <c r="G77" t="n">
-        <v>-1879633.03471903</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>268</v>
-      </c>
-      <c r="J77" t="n">
-        <v>264</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3090,26 +2929,19 @@
         <v>1762249</v>
       </c>
       <c r="G78" t="n">
-        <v>-1879633.03471903</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>264</v>
-      </c>
-      <c r="J78" t="n">
-        <v>264</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,24 +2963,21 @@
         <v>1755392</v>
       </c>
       <c r="G79" t="n">
-        <v>-1879633.03471903</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>264</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3170,26 +2999,21 @@
         <v>939516.9608</v>
       </c>
       <c r="G80" t="n">
-        <v>-940116.0739190301</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>264</v>
-      </c>
-      <c r="J80" t="n">
-        <v>264</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3211,26 +3035,19 @@
         <v>1068.53179888</v>
       </c>
       <c r="G81" t="n">
-        <v>-941184.6057179101</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>268</v>
-      </c>
-      <c r="J81" t="n">
-        <v>264</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3252,26 +3069,19 @@
         <v>17236</v>
       </c>
       <c r="G82" t="n">
-        <v>-958420.6057179101</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>265</v>
-      </c>
-      <c r="J82" t="n">
-        <v>264</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3293,26 +3103,19 @@
         <v>961688</v>
       </c>
       <c r="G83" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>264</v>
-      </c>
-      <c r="J83" t="n">
-        <v>264</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3334,24 +3137,19 @@
         <v>1200608.70895522</v>
       </c>
       <c r="G84" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>264</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3373,24 +3171,19 @@
         <v>1200900.017</v>
       </c>
       <c r="G85" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>264</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3412,24 +3205,19 @@
         <v>119299.983</v>
       </c>
       <c r="G86" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>264</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3451,24 +3239,19 @@
         <v>580000</v>
       </c>
       <c r="G87" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>264</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3490,24 +3273,19 @@
         <v>412000</v>
       </c>
       <c r="G88" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>264</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,24 +3307,19 @@
         <v>1696.0492</v>
       </c>
       <c r="G89" t="n">
-        <v>3267.394282089896</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>264</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3568,24 +3341,19 @@
         <v>583.23622359</v>
       </c>
       <c r="G90" t="n">
-        <v>3850.630505679896</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>264</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3607,24 +3375,19 @@
         <v>642.366</v>
       </c>
       <c r="G91" t="n">
-        <v>3208.264505679896</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>264</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3646,24 +3409,19 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>3209.264505679896</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>264</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3685,24 +3443,19 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>3208.264505679896</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>264</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3724,26 +3477,19 @@
         <v>4762.9047</v>
       </c>
       <c r="G94" t="n">
-        <v>7971.169205679896</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>266</v>
-      </c>
-      <c r="J94" t="n">
-        <v>264</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3765,24 +3511,19 @@
         <v>2042.9593</v>
       </c>
       <c r="G95" t="n">
-        <v>5928.209905679896</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>264</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1.017727272727273</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3804,18 +3545,19 @@
         <v>1438.66791044</v>
       </c>
       <c r="G96" t="n">
-        <v>4489.541995239896</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3837,18 +3579,19 @@
         <v>53.1331</v>
       </c>
       <c r="G97" t="n">
-        <v>4542.675095239896</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3870,18 +3613,19 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>4544.675095239896</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3903,18 +3647,19 @@
         <v>1304.3800738</v>
       </c>
       <c r="G99" t="n">
-        <v>4544.675095239896</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3936,18 +3681,19 @@
         <v>859</v>
       </c>
       <c r="G100" t="n">
-        <v>3685.675095239896</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3969,18 +3715,19 @@
         <v>19.7269</v>
       </c>
       <c r="G101" t="n">
-        <v>3705.401995239896</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4002,18 +3749,19 @@
         <v>3678.70509926</v>
       </c>
       <c r="G102" t="n">
-        <v>7384.107094499896</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4035,18 +3783,19 @@
         <v>44.8875</v>
       </c>
       <c r="G103" t="n">
-        <v>7339.219594499897</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4068,18 +3817,19 @@
         <v>637.6678000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>7976.887394499897</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4101,18 +3851,19 @@
         <v>781.397</v>
       </c>
       <c r="G105" t="n">
-        <v>8758.284394499897</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4134,18 +3885,17 @@
         <v>134</v>
       </c>
       <c r="G106" t="n">
-        <v>8624.284394499897</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4167,18 +3917,15 @@
         <v>3663.0036</v>
       </c>
       <c r="G107" t="n">
-        <v>12287.2879944999</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
